--- a/javascript.xlsx
+++ b/javascript.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
